--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>799214.8061654039</v>
+        <v>879417.5293174383</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5739665.974240765</v>
+        <v>5739665.974240762</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9509111.451434787</v>
+        <v>9509111.451434789</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>311.7934191296271</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>189.7185254440888</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>120.3332554667406</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>144.8586974472227</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,16 +898,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>89.12985772078963</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>303.8781121377943</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705085</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>134.5169932854128</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.781160222249666</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>163.582095130155</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>36.35243252145736</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,19 +1347,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>193.5534233013601</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.781160222249659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>39.32117841962469</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>195.0465954186437</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1537,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>120.7389995830103</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1610,10 +1612,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>260.8804908563084</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1667,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>228.1910895014588</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.75769145492292</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>122.4179473152586</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.718475429348714</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1859,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>42.6455999594027</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>138.2178776215695</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>13.42874471570741</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2084,22 +2086,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>47.43217639605577</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>168.1158122680976</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>73.34931970216566</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>61.17118126752713</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2324,16 +2326,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>235.9375844494528</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>200.8052136229464</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2415,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>77.31354443380542</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>122.7920547052924</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2555,25 +2557,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>99.59933623926702</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>168.1158122680963</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2649,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>52.74455946606808</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>224.7562560951392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>229.796569204137</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>121.3678547155322</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249712</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>4.043187116399006</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3038,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>308.9203564757127</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>8.750814577927025</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>36.98868590053339</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3247,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>27.31105153749118</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>353.433262524921</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3275,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>284.4297735342305</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>74.75769145492396</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>6.380068175848154</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3506,22 +3508,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>16.348254743886</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>20.3787069381214</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3600,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>59.90320919298875</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>176.7697821123584</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3749,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>57.92518451681195</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680963</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3901,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>43.82638941102154</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>146.494681012113</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3980,22 +3982,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>131.9809553984416</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>29.38892166358623</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>66.4118051087851</v>
+        <v>113.5103646250815</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>736.6224273402283</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="C2" t="n">
-        <v>736.6224273402283</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D2" t="n">
-        <v>736.6224273402283</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E2" t="n">
-        <v>736.6224273402283</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>736.6224273402283</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4325,16 +4327,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4346,34 +4348,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926625</v>
+        <v>2246.005246740678</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190805</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847234</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="W2" t="n">
-        <v>1500.22751757712</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="X2" t="n">
-        <v>1126.76175931604</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="Y2" t="n">
-        <v>736.6224273402283</v>
+        <v>1992.424186004858</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100997</v>
+        <v>932.4978103101</v>
       </c>
       <c r="M3" t="n">
         <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2175.50262973664</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4446,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1514.8973771788</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1225.779039682638</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>971.0945514767509</v>
       </c>
       <c r="W4" t="n">
-        <v>1636.446120074497</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X4" t="n">
-        <v>1490.124203461141</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.276945881932</v>
+        <v>1471.210842731384</v>
       </c>
       <c r="C5" t="n">
-        <v>51.24678656800311</v>
+        <v>1102.248325790972</v>
       </c>
       <c r="D5" t="n">
-        <v>51.24678656800311</v>
+        <v>743.9826271842214</v>
       </c>
       <c r="E5" t="n">
-        <v>51.24678656800311</v>
+        <v>358.1943745859772</v>
       </c>
       <c r="F5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453059</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W5" t="n">
-        <v>1291.481876182945</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="X5" t="n">
-        <v>918.0161179218655</v>
+        <v>1857.810682795505</v>
       </c>
       <c r="Y5" t="n">
-        <v>527.8767859460538</v>
+        <v>1857.810682795505</v>
       </c>
     </row>
     <row r="6">
@@ -4620,55 +4622,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966393</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155124</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542611</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488056</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756906</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182527</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057973</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625332</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M6" t="n">
-        <v>956.2844025217532</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1861.38035112061</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506775</v>
+        <v>2193.450786296772</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2440.633520129069</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S6" t="n">
         <v>2426.617474780096</v>
@@ -4680,13 +4682,13 @@
         <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.24678656800311</v>
+        <v>326.0381161665167</v>
       </c>
       <c r="C7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4732,7 +4734,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4744,31 +4746,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U7" t="n">
-        <v>825.137147448514</v>
+        <v>1500.570369281151</v>
       </c>
       <c r="V7" t="n">
-        <v>570.4526592426272</v>
+        <v>1245.885881075264</v>
       </c>
       <c r="W7" t="n">
-        <v>281.0354892056666</v>
+        <v>956.4687110383038</v>
       </c>
       <c r="X7" t="n">
-        <v>53.04593830764924</v>
+        <v>728.4791601402865</v>
       </c>
       <c r="Y7" t="n">
-        <v>51.24678656800311</v>
+        <v>507.6865809967563</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1412.134398099143</v>
+        <v>1468.322398715839</v>
       </c>
       <c r="C8" t="n">
-        <v>1043.171881158731</v>
+        <v>1099.359881775428</v>
       </c>
       <c r="D8" t="n">
-        <v>1043.171881158731</v>
+        <v>741.0941831686771</v>
       </c>
       <c r="E8" t="n">
-        <v>1043.171881158731</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="F8" t="n">
-        <v>632.1859763691234</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G8" t="n">
-        <v>216.4812260934123</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362824</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872921</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>2525.619699590604</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400156</v>
+        <v>2194.556812247033</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400156</v>
+        <v>1841.788156976919</v>
       </c>
       <c r="X8" t="n">
-        <v>2188.873570139076</v>
+        <v>1468.322398715839</v>
       </c>
       <c r="Y8" t="n">
-        <v>1798.734238163264</v>
+        <v>1468.322398715839</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>956.2844025217535</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.24678656800312</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800312</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800312</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800312</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800312</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312205</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4981,7 +4983,7 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
         <v>1533.86271359008</v>
@@ -4993,19 +4995,19 @@
         <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>825.137147448514</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="V10" t="n">
-        <v>570.4526592426272</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="W10" t="n">
-        <v>281.0354892056666</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="X10" t="n">
-        <v>53.04593830764924</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.24678656800312</v>
+        <v>918.7469765594642</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1647.321240915451</v>
+        <v>2342.888901953459</v>
       </c>
       <c r="C11" t="n">
-        <v>1278.358723975039</v>
+        <v>1973.926385013047</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>1615.660686406296</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>1229.872433808052</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>818.8865290184447</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218339</v>
+        <v>403.8140788634411</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218339</v>
+        <v>106.2304784722083</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5054,13 +5056,13 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.60582160917</v>
@@ -5069,22 +5071,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>3128.589058560035</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U11" t="n">
-        <v>3128.589058560035</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V11" t="n">
-        <v>2797.526171216464</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="W11" t="n">
-        <v>2797.526171216464</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="X11" t="n">
-        <v>2424.060412955384</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="Y11" t="n">
-        <v>2033.921080979572</v>
+        <v>2729.488742017581</v>
       </c>
     </row>
     <row r="12">
@@ -5109,22 +5111,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,10 +5138,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5218,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088492</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1944.904841306683</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C14" t="n">
-        <v>1575.942324366272</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D14" t="n">
-        <v>1575.942324366272</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E14" t="n">
         <v>1190.154071768027</v>
@@ -5270,25 +5272,25 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5300,28 +5302,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W14" t="n">
-        <v>3095.109771607697</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X14" t="n">
-        <v>2721.644013346617</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y14" t="n">
-        <v>2331.504681370805</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.5121164321834</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C16" t="n">
-        <v>66.5121164321834</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D16" t="n">
-        <v>66.5121164321834</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E16" t="n">
-        <v>66.5121164321834</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="F16" t="n">
-        <v>66.5121164321834</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="G16" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672846</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242372</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621287</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251681</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271508</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.0249360836207</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1638.360256348808</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C17" t="n">
-        <v>1636.624422581789</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D17" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E17" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G17" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
         <v>66.5121164321834</v>
@@ -5525,13 +5527,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
@@ -5543,22 +5545,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U17" t="n">
-        <v>3119.628073993392</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V17" t="n">
-        <v>2788.565186649821</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W17" t="n">
-        <v>2788.565186649821</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X17" t="n">
-        <v>2415.099428388742</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y17" t="n">
-        <v>2024.96009641293</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
         <v>176.0213023927779</v>
@@ -5592,13 +5594,13 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5625,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1091.613680441807</v>
+        <v>373.8289708570296</v>
       </c>
       <c r="C19" t="n">
-        <v>922.6774975139006</v>
+        <v>373.8289708570296</v>
       </c>
       <c r="D19" t="n">
-        <v>772.5608581015648</v>
+        <v>373.8289708570296</v>
       </c>
       <c r="E19" t="n">
-        <v>624.6477645191717</v>
+        <v>373.8289708570296</v>
       </c>
       <c r="F19" t="n">
-        <v>477.7578170212613</v>
+        <v>373.8289708570296</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959802</v>
+        <v>206.1261342317486</v>
       </c>
       <c r="H19" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I19" t="n">
         <v>66.5121164321834</v>
@@ -5695,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T19" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U19" t="n">
-        <v>1735.608663915319</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V19" t="n">
-        <v>1735.608663915319</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W19" t="n">
-        <v>1722.044275313594</v>
+        <v>1004.259565728817</v>
       </c>
       <c r="X19" t="n">
-        <v>1494.054724415577</v>
+        <v>776.2700148307995</v>
       </c>
       <c r="Y19" t="n">
-        <v>1273.262145272047</v>
+        <v>555.4774356872693</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2005.586939522201</v>
+        <v>1190.127582679363</v>
       </c>
       <c r="C20" t="n">
-        <v>1636.624422581789</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="D20" t="n">
-        <v>1278.358723975039</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="E20" t="n">
-        <v>892.5704713767946</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3277.694532320225</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.605821609171</v>
+        <v>3024.164055594061</v>
       </c>
       <c r="V20" t="n">
-        <v>3155.791869823214</v>
+        <v>2693.10116825049</v>
       </c>
       <c r="W20" t="n">
-        <v>3155.791869823214</v>
+        <v>2340.332512980376</v>
       </c>
       <c r="X20" t="n">
-        <v>2782.326111562134</v>
+        <v>1966.866754719296</v>
       </c>
       <c r="Y20" t="n">
-        <v>2392.186779586323</v>
+        <v>1576.727422743484</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064741</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>827.064395508012</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>529.0179941377679</v>
+        <v>2151.073568494535</v>
       </c>
       <c r="C22" t="n">
-        <v>529.0179941377679</v>
+        <v>1982.137385566628</v>
       </c>
       <c r="D22" t="n">
-        <v>529.0179941377679</v>
+        <v>1832.020746154293</v>
       </c>
       <c r="E22" t="n">
-        <v>381.1049005553748</v>
+        <v>1832.020746154293</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574645</v>
+        <v>1685.130798656382</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218343</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.464090846021</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S22" t="n">
-        <v>1645.778206672847</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T22" t="n">
-        <v>1424.011591242373</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U22" t="n">
-        <v>1134.908724368016</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V22" t="n">
-        <v>880.2242361621296</v>
+        <v>3070.921333403283</v>
       </c>
       <c r="W22" t="n">
-        <v>590.8070661251691</v>
+        <v>2781.504163366323</v>
       </c>
       <c r="X22" t="n">
-        <v>529.0179941377679</v>
+        <v>2553.514612468305</v>
       </c>
       <c r="Y22" t="n">
-        <v>529.0179941377679</v>
+        <v>2332.722033324775</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1032.06112435253</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C23" t="n">
-        <v>663.0986074121186</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D23" t="n">
-        <v>304.832908805368</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E23" t="n">
-        <v>66.5121164321834</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="F23" t="n">
-        <v>66.5121164321834</v>
+        <v>684.4181157012742</v>
       </c>
       <c r="G23" t="n">
-        <v>66.5121164321834</v>
+        <v>269.3456655462707</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329465</v>
@@ -5999,40 +6001,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V23" t="n">
-        <v>2535.034709923658</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W23" t="n">
-        <v>2182.266054653544</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X23" t="n">
-        <v>1808.800296392464</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y23" t="n">
-        <v>1418.660964416652</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2191.895220967756</v>
+        <v>1861.970701620181</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.959038039849</v>
+        <v>1693.034518692274</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.959038039849</v>
+        <v>1542.917879279938</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.959038039849</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="F25" t="n">
-        <v>1876.069090541939</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="G25" t="n">
-        <v>1708.366253916658</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H25" t="n">
-        <v>1562.149067134515</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J25" t="n">
-        <v>1509.946022399796</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K25" t="n">
-        <v>1713.933205348673</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L25" t="n">
-        <v>2030.493003797169</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M25" t="n">
-        <v>2374.650049396718</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N25" t="n">
-        <v>2716.058426102582</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O25" t="n">
-        <v>3015.388025022996</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P25" t="n">
-        <v>3247.995525456655</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R25" t="n">
-        <v>3235.775364366698</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S25" t="n">
-        <v>3111.742985876504</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T25" t="n">
-        <v>3111.742985876504</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U25" t="n">
-        <v>3111.742985876504</v>
+        <v>3036.502954734815</v>
       </c>
       <c r="V25" t="n">
-        <v>3111.742985876504</v>
+        <v>2781.818466528928</v>
       </c>
       <c r="W25" t="n">
-        <v>2822.325815839543</v>
+        <v>2492.401296491968</v>
       </c>
       <c r="X25" t="n">
-        <v>2594.336264941526</v>
+        <v>2264.41174559395</v>
       </c>
       <c r="Y25" t="n">
-        <v>2373.543685797996</v>
+        <v>2043.61916645042</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2005.586939522201</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="C26" t="n">
-        <v>1636.624422581789</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="D26" t="n">
-        <v>1278.358723975039</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6236,40 +6238,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R26" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V26" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W26" t="n">
-        <v>3155.791869823214</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X26" t="n">
-        <v>2782.326111562134</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y26" t="n">
-        <v>2392.186779586323</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="27">
@@ -6294,22 +6296,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6321,10 +6323,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R27" t="n">
         <v>2564.909189125856</v>
@@ -6358,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>848.0708164780106</v>
+        <v>752.7622949738575</v>
       </c>
       <c r="C28" t="n">
-        <v>679.1346335501037</v>
+        <v>583.8261120459506</v>
       </c>
       <c r="D28" t="n">
-        <v>529.0179941377679</v>
+        <v>433.7094726336148</v>
       </c>
       <c r="E28" t="n">
-        <v>381.1049005553748</v>
+        <v>433.7094726336148</v>
       </c>
       <c r="F28" t="n">
-        <v>234.2149530574644</v>
+        <v>433.7094726336148</v>
       </c>
       <c r="G28" t="n">
-        <v>66.5121164321834</v>
+        <v>266.0066360083338</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>119.7894492261916</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J28" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K28" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L28" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N28" t="n">
         <v>1317.747152581905</v>
@@ -6403,31 +6405,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S28" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T28" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U28" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V28" t="n">
-        <v>1705.527932658019</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W28" t="n">
-        <v>1478.501411349798</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X28" t="n">
-        <v>1250.51186045178</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y28" t="n">
-        <v>1029.71928130825</v>
+        <v>934.4107598040972</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1575.915835277607</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C29" t="n">
-        <v>1206.953318337195</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D29" t="n">
-        <v>1206.953318337195</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E29" t="n">
-        <v>821.1650657389509</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P29" t="n">
         <v>3018.302393296686</v>
@@ -6488,25 +6490,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450753</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180638</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.509627919559</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y29" t="n">
-        <v>1575.915835277607</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="30">
@@ -6531,28 +6533,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O30" t="n">
         <v>2096.912393410638</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2082.763280763709</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="C31" t="n">
-        <v>1913.827097835802</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="D31" t="n">
-        <v>1763.710458423466</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="E31" t="n">
-        <v>1615.797364841073</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="F31" t="n">
-        <v>1468.907417343163</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="G31" t="n">
         <v>1464.823389952861</v>
@@ -6646,25 +6648,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S31" t="n">
-        <v>3325.60582160917</v>
+        <v>3133.919937435996</v>
       </c>
       <c r="T31" t="n">
-        <v>3325.60582160917</v>
+        <v>2912.153322005523</v>
       </c>
       <c r="U31" t="n">
-        <v>3036.502954734814</v>
+        <v>2623.050455131166</v>
       </c>
       <c r="V31" t="n">
-        <v>2781.818466528927</v>
+        <v>2368.365966925279</v>
       </c>
       <c r="W31" t="n">
-        <v>2492.401296491966</v>
+        <v>2078.948796888319</v>
       </c>
       <c r="X31" t="n">
-        <v>2264.411745593949</v>
+        <v>1850.959245990301</v>
       </c>
       <c r="Y31" t="n">
-        <v>2264.411745593949</v>
+        <v>1630.166666846771</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2303.170539913434</v>
+        <v>1491.569348694471</v>
       </c>
       <c r="C32" t="n">
-        <v>1934.208022973022</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="D32" t="n">
-        <v>1575.942324366272</v>
+        <v>764.3411331473092</v>
       </c>
       <c r="E32" t="n">
-        <v>1190.154071768027</v>
+        <v>378.5528805490649</v>
       </c>
       <c r="F32" t="n">
-        <v>779.1681669784198</v>
+        <v>378.5528805490649</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J32" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6710,16 +6712,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R32" t="n">
         <v>3325.60582160917</v>
@@ -6728,22 +6730,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T32" t="n">
-        <v>3316.766614964799</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U32" t="n">
-        <v>3063.236138238636</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V32" t="n">
-        <v>3063.236138238636</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W32" t="n">
-        <v>3063.236138238636</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X32" t="n">
-        <v>2689.770379977556</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y32" t="n">
-        <v>2689.770379977556</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="33">
@@ -6768,28 +6770,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O33" t="n">
         <v>2096.912393410638</v>
@@ -6832,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>624.6477645191717</v>
+        <v>567.6136494308315</v>
       </c>
       <c r="C34" t="n">
-        <v>624.6477645191717</v>
+        <v>398.6774665029246</v>
       </c>
       <c r="D34" t="n">
-        <v>624.6477645191717</v>
+        <v>398.6774665029246</v>
       </c>
       <c r="E34" t="n">
-        <v>624.6477645191717</v>
+        <v>250.7643729205315</v>
       </c>
       <c r="F34" t="n">
-        <v>477.7578170212613</v>
+        <v>103.8744254226212</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H34" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J34" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K34" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L34" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N34" t="n">
         <v>1317.747152581905</v>
@@ -6877,31 +6879,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S34" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V34" t="n">
-        <v>880.2242361621296</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W34" t="n">
-        <v>852.637315417189</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="X34" t="n">
-        <v>624.6477645191717</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="Y34" t="n">
-        <v>624.6477645191717</v>
+        <v>749.2621142610712</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2175.400891308158</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="C35" t="n">
-        <v>1806.438374367746</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D35" t="n">
-        <v>1448.172675760996</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.384423162752</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F35" t="n">
-        <v>651.398518373144</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G35" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
@@ -6968,19 +6970,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.605821609171</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W35" t="n">
-        <v>3325.605821609171</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X35" t="n">
-        <v>2952.140063348092</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y35" t="n">
-        <v>2562.00073137228</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="36">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1464.823389952862</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C37" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D37" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E37" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F37" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G37" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>3235.775364366699</v>
+        <v>1920.850034779555</v>
       </c>
       <c r="S37" t="n">
-        <v>3044.089480193526</v>
+        <v>1920.850034779555</v>
       </c>
       <c r="T37" t="n">
-        <v>2822.322864763052</v>
+        <v>1699.083419349081</v>
       </c>
       <c r="U37" t="n">
-        <v>2533.219997888695</v>
+        <v>1409.980552474725</v>
       </c>
       <c r="V37" t="n">
-        <v>2278.535509682808</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W37" t="n">
-        <v>1989.118339645848</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X37" t="n">
-        <v>1761.12878874783</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y37" t="n">
-        <v>1540.3362096043</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1238.038871968309</v>
+        <v>1232.248790760447</v>
       </c>
       <c r="C38" t="n">
-        <v>869.0763550278973</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="D38" t="n">
-        <v>510.8106564211468</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E38" t="n">
-        <v>125.0224038229026</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F38" t="n">
-        <v>125.0224038229026</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G38" t="n">
-        <v>125.0224038229026</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7196,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U38" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>2741.012457539437</v>
+        <v>2735.222376331575</v>
       </c>
       <c r="W38" t="n">
-        <v>2388.243802269322</v>
+        <v>2382.45372106146</v>
       </c>
       <c r="X38" t="n">
-        <v>2014.778044008242</v>
+        <v>2008.98796280038</v>
       </c>
       <c r="Y38" t="n">
-        <v>1624.638712032431</v>
+        <v>1618.848630824569</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7284,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1091.613680441807</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C40" t="n">
-        <v>922.6774975139006</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D40" t="n">
-        <v>772.5608581015648</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7363,19 +7365,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U40" t="n">
-        <v>1927.294548088493</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V40" t="n">
-        <v>1672.610059882606</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W40" t="n">
-        <v>1672.610059882606</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X40" t="n">
-        <v>1494.054724415577</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y40" t="n">
-        <v>1273.262145272047</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1238.038871968309</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C41" t="n">
-        <v>869.0763550278973</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D41" t="n">
-        <v>510.8106564211468</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>125.0224038229026</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>125.0224038229026</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>125.0224038229026</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U41" t="n">
-        <v>3072.075344883007</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V41" t="n">
-        <v>2741.012457539437</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W41" t="n">
-        <v>2388.243802269322</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X41" t="n">
-        <v>2014.778044008242</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y41" t="n">
-        <v>1624.638712032431</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1091.613680441807</v>
+        <v>530.2513404403937</v>
       </c>
       <c r="C43" t="n">
-        <v>922.6774975139006</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="D43" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7591,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1601.509126459694</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U43" t="n">
-        <v>1312.406259585337</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V43" t="n">
-        <v>1312.406259585337</v>
+        <v>1268.450640518902</v>
       </c>
       <c r="W43" t="n">
-        <v>1312.406259585337</v>
+        <v>979.0334704819412</v>
       </c>
       <c r="X43" t="n">
-        <v>1312.406259585337</v>
+        <v>751.0439195839239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1091.613680441807</v>
+        <v>530.2513404403937</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1921.870414581994</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C44" t="n">
-        <v>1552.907897641582</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D44" t="n">
-        <v>1194.642199034832</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>808.8539464365876</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>808.8539464365876</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>393.7814962815841</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>96.19789589035133</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
@@ -7679,19 +7681,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>3072.075344883007</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V44" t="n">
-        <v>3072.075344883007</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W44" t="n">
-        <v>3072.075344883007</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X44" t="n">
-        <v>2698.609586621928</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y44" t="n">
-        <v>2308.470254646116</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
@@ -7731,7 +7733,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7758,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>747.4506112757448</v>
+        <v>1579.480323917591</v>
       </c>
       <c r="C46" t="n">
-        <v>578.5144283478379</v>
+        <v>1579.480323917591</v>
       </c>
       <c r="D46" t="n">
-        <v>428.3977889355021</v>
+        <v>1579.480323917591</v>
       </c>
       <c r="E46" t="n">
-        <v>280.484695353109</v>
+        <v>1579.480323917591</v>
       </c>
       <c r="F46" t="n">
-        <v>133.5947478551987</v>
+        <v>1579.480323917591</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T46" t="n">
-        <v>1735.608663915319</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="U46" t="n">
-        <v>1446.505797040963</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="V46" t="n">
-        <v>1446.505797040963</v>
+        <v>2278.535509682808</v>
       </c>
       <c r="W46" t="n">
-        <v>1157.088627004002</v>
+        <v>1989.118339645848</v>
       </c>
       <c r="X46" t="n">
-        <v>929.0990761059845</v>
+        <v>1761.12878874783</v>
       </c>
       <c r="Y46" t="n">
-        <v>929.0990761059845</v>
+        <v>1761.12878874783</v>
       </c>
     </row>
   </sheetData>
@@ -8061,13 +8063,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>162.0073097921338</v>
+        <v>162.0073097921339</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8301,22 +8303,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N6" t="n">
-        <v>211.0329012241558</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>6.454437538930094</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878346</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>211.0329012241551</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9975,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -22550,16 +22552,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>99.75428364332691</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22598,22 +22600,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>16.93965953614494</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22705,25 +22707,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22756,19 +22758,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>100.4154405304713</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>80.85095794181444</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22784,16 +22786,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>276.1430340502179</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>102.9979336039171</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
@@ -22802,7 +22804,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22939,10 +22941,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -22960,7 +22962,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,16 +22989,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>151.7101608357878</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23008,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>216.8034931298451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>137.4364574322503</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23075,19 +23077,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>214.6928176070047</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23182,22 +23184,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23233,19 +23235,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>92.67373081984047</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>216.8034931298451</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23261,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>2.255751353301257</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,19 +23311,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>8.871374720976462</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23425,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>45.28680867601794</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23473,10 +23475,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944209</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23498,10 +23500,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>93.80255076437453</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -23555,7 +23557,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>121.0498792159542</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270144</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>43.60786094376958</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23729,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>363.5544163416589</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23747,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,22 +23785,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>327.0855007190663</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>6.537137292751254</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>273.0942536208836</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23972,22 +23974,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,16 +24022,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>156.4857937435644</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>159.6364462020373</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>92.67648855686257</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>164.53847412151</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24212,16 +24214,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>145.992785622809</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>93.80255076437408</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -24257,13 +24259,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>69.12041821276375</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>66.97697062614951</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24443,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>307.2767095024444</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>181.1251564493167</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>43.60786094377004</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>61.76674224145185</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>21.19860275476498</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24746,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>264.8700839405214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>16.14213605696608</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>161.9826211426292</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24926,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>102.0013691777407</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,22 +24970,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>195.1671555616931</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>129.0371223584948</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>259.2119467990998</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>29.30057913855961</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25163,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>126.4919521192229</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25208,13 +25210,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>82.55208449419918</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25394,22 +25396,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>278.2595096434345</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>307.3735515320135</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>88.7122638252236</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,16 +25605,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>48.93987327667872</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25637,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>236.6825798705085</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25682,13 +25684,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>181.1251564493167</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>175.7225598651477</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>105.642962311715</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25868,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>222.7020862222414</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>12.18800810933972</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,13 +25921,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26023,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>99.61400315024312</v>
+        <v>52.51544363394677</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>762875.9985773695</v>
+        <v>762875.9985773697</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>762875.9985773697</v>
+        <v>762875.9985773698</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>842152.2760938915</v>
+        <v>842152.2760938916</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>842152.2760938915</v>
+        <v>842152.2760938916</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>842152.2760938916</v>
+        <v>842152.2760938914</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>842152.2760938914</v>
+        <v>842152.2760938916</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>842152.2760938916</v>
+        <v>842152.2760938915</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>842152.2760938916</v>
+        <v>842152.2760938915</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>842152.2760938916</v>
+        <v>842152.2760938912</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>842152.2760938916</v>
+        <v>842152.2760938915</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>842152.2760938914</v>
+        <v>842152.2760938915</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>321270.2120190238</v>
+      </c>
+      <c r="C2" t="n">
         <v>321270.2120190239</v>
       </c>
-      <c r="C2" t="n">
-        <v>321270.2120190238</v>
-      </c>
       <c r="D2" t="n">
-        <v>321270.2120190239</v>
+        <v>321270.2120190241</v>
       </c>
       <c r="E2" t="n">
+        <v>358046.9539194667</v>
+      </c>
+      <c r="F2" t="n">
+        <v>358046.9539194665</v>
+      </c>
+      <c r="G2" t="n">
+        <v>358046.9539194665</v>
+      </c>
+      <c r="H2" t="n">
         <v>358046.9539194666</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>358046.9539194667</v>
+      </c>
+      <c r="J2" t="n">
         <v>358046.9539194666</v>
-      </c>
-      <c r="G2" t="n">
-        <v>358046.9539194666</v>
-      </c>
-      <c r="H2" t="n">
-        <v>358046.9539194668</v>
-      </c>
-      <c r="I2" t="n">
-        <v>358046.9539194666</v>
-      </c>
-      <c r="J2" t="n">
-        <v>358046.9539194665</v>
       </c>
       <c r="K2" t="n">
         <v>358046.9539194666</v>
@@ -26347,13 +26349,13 @@
         <v>358046.9539194666</v>
       </c>
       <c r="N2" t="n">
-        <v>358046.9539194667</v>
+        <v>358046.9539194665</v>
       </c>
       <c r="O2" t="n">
-        <v>358046.9539194667</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="P2" t="n">
-        <v>358046.9539194668</v>
+        <v>358046.9539194666</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171902</v>
+        <v>182072.9798171903</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099823</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26418,16 +26420,16 @@
         <v>13767.3191301128</v>
       </c>
       <c r="C4" t="n">
-        <v>13767.31913011279</v>
+        <v>13767.3191301128</v>
       </c>
       <c r="D4" t="n">
-        <v>13767.31913011279</v>
+        <v>13767.31913011278</v>
       </c>
       <c r="E4" t="n">
-        <v>7330.627242042255</v>
+        <v>7330.627242042245</v>
       </c>
       <c r="F4" t="n">
-        <v>7330.627242042261</v>
+        <v>7330.627242042245</v>
       </c>
       <c r="G4" t="n">
         <v>7330.627242042245</v>
@@ -26439,7 +26441,7 @@
         <v>7330.627242042245</v>
       </c>
       <c r="J4" t="n">
-        <v>7330.627242042245</v>
+        <v>7330.627242042256</v>
       </c>
       <c r="K4" t="n">
         <v>7330.627242042245</v>
@@ -26467,46 +26469,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="H5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="I5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="I5" t="n">
-        <v>74306.34056139328</v>
-      </c>
       <c r="J5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="K5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
         <v>74306.3405613933</v>
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-900186.6631268529</v>
+        <v>-900186.6631268535</v>
       </c>
       <c r="C6" t="n">
-        <v>214565.1204490661</v>
+        <v>214565.1204490663</v>
       </c>
       <c r="D6" t="n">
-        <v>214565.1204490664</v>
+        <v>214565.1204490666</v>
       </c>
       <c r="E6" t="n">
-        <v>94337.00629884089</v>
+        <v>94337.00629884088</v>
       </c>
       <c r="F6" t="n">
-        <v>276409.9861160313</v>
+        <v>276409.986116031</v>
       </c>
       <c r="G6" t="n">
-        <v>276409.9861160308</v>
+        <v>276409.986116031</v>
       </c>
       <c r="H6" t="n">
+        <v>276409.9861160311</v>
+      </c>
+      <c r="I6" t="n">
         <v>276409.9861160312</v>
       </c>
-      <c r="I6" t="n">
-        <v>276409.9861160311</v>
-      </c>
       <c r="J6" t="n">
-        <v>108804.8083060485</v>
+        <v>108804.8083060488</v>
       </c>
       <c r="K6" t="n">
         <v>276409.9861160311</v>
@@ -26552,16 +26554,16 @@
         <v>276409.9861160311</v>
       </c>
       <c r="M6" t="n">
-        <v>228857.7203226163</v>
+        <v>228857.7203226162</v>
       </c>
       <c r="N6" t="n">
-        <v>276409.9861160312</v>
+        <v>276409.986116031</v>
       </c>
       <c r="O6" t="n">
-        <v>276409.9861160312</v>
+        <v>276409.9861160311</v>
       </c>
       <c r="P6" t="n">
-        <v>276409.9861160313</v>
+        <v>276409.9861160311</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="I4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="I4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26957,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757587</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022534</v>
+        <v>190.8166233022533</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022534</v>
+        <v>190.8166233022533</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,25 +31205,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,28 +31284,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31318,7 +31320,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
@@ -31367,10 +31369,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040589</v>
@@ -31379,7 +31381,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378626</v>
@@ -31391,10 +31393,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31440,19 +31442,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31467,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,28 +31521,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31555,7 +31557,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
@@ -31604,10 +31606,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040589</v>
@@ -31616,7 +31618,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31628,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31677,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31704,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,7 +32314,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32558,7 +32560,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837925</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33755,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33980,7 +33982,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837925</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>553.2044093850077</v>
+        <v>553.2044093850079</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,28 +34938,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>640.584832100039</v>
       </c>
       <c r="N6" t="n">
-        <v>602.2300008170298</v>
+        <v>640.584832100039</v>
       </c>
       <c r="O6" t="n">
         <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>122.9351598697847</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
@@ -35100,7 +35102,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
@@ -35173,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>602.2300008170291</v>
       </c>
       <c r="O9" t="n">
         <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35337,7 +35339,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36206,7 +36208,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004592</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597745</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37239,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37628,7 +37630,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004592</v>
@@ -37801,7 +37803,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
